--- a/biology/Zoologie/Chiasmia_clathrata/Chiasmia_clathrata.xlsx
+++ b/biology/Zoologie/Chiasmia_clathrata/Chiasmia_clathrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Réseau, Géomètre à barreaux, Phalène réticulée
 Chiasmia clathrata, le Réseau, la Géomètre à barreaux ou encore la Phalène réticulée, est une espèce de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Ennominae, de la tribu des Macariini, du genre Chiasmia. C'est l'espèce type pour le genre.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce variable par la couleur jaunâtre des ailes de l'imago et par la diversité de ses lignes foncées.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique : de l'Europe à la Mongolie. Commune dans toute la France métropolitaine.
 </t>
@@ -574,9 +590,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bivoltins, les adultes volent en avril-mai, les femelles de cette première génération pondent en mai, donnant des chenilles à croissance rapide ce qui amène des émergences en juillet. Ces papillons de seconde génération vivent en juillet-aout, les femelles pondent en aout et les œufs issus de cette seconde génération donnent des chenilles qui hiverneront sous forme de chrysalide[1]. Le papillon est actif le jour, dans les friches, les prairies, les dunes ; posé, il garde les ailes ouvertes.Les larves se nourrissent de Fabaceae (légumineuses)[2] : Lathyrus pratensis, Trifolium medium, Trifolium pratense, de Rubiaceae : Galium mollugo, Galium verum...
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bivoltins, les adultes volent en avril-mai, les femelles de cette première génération pondent en mai, donnant des chenilles à croissance rapide ce qui amène des émergences en juillet. Ces papillons de seconde génération vivent en juillet-aout, les femelles pondent en aout et les œufs issus de cette seconde génération donnent des chenilles qui hiverneront sous forme de chrysalide. Le papillon est actif le jour, dans les friches, les prairies, les dunes ; posé, il garde les ailes ouvertes.Les larves se nourrissent de Fabaceae (légumineuses) : Lathyrus pratensis, Trifolium medium, Trifolium pratense, de Rubiaceae : Galium mollugo, Galium verum...
 </t>
         </is>
       </c>
@@ -605,53 +623,126 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste suédois Carl von Linné en 1758, sous le nom initial de Phalaena clathrata[3].
-Synonymie
-Phalaena clathrata (Linné, 1758) Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par l'entomologiste suédois Carl von Linné en 1758, sous le nom initial de Phalaena clathrata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chiasmia_clathrata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chiasmia_clathrata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Phalaena clathrata (Linné, 1758) Protonyme
 Phalaena retialis (Scopoli, 1763)
 Phalaena decussata (Schrank, 1802)
 Geometra cancellaria (Hübner, 1809)
 Phalaena radiata (Haworth, 1809)
 Phasiane clathrata nivea (Rocci, 1923)
 Chiasmia clathrata vanderbana (Wehrli, 1940)
-Semiothisa clathrata tschangkuensis (Wehrli, 1940)
-Liste des sous-espèces
-Chiasmia clathrata clathrata (Linné)
+Semiothisa clathrata tschangkuensis (Wehrli, 1940)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chiasmia_clathrata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chiasmia_clathrata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chiasmia clathrata clathrata (Linné)
 Chiasmia clathrata centralasiae (Krulikowski, 1911)
 Chiasmia clathrata djakonovi (Kardakoff, 1928)
 Chiasmia clathrata kurilata (Bryk, 1942)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Chiasmia_clathrata</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chiasmia_clathrata</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En français : le Réseau[4], la Géomètre à barreaux[4], la Phalène réticulée.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En français : le Réseau, la Géomètre à barreaux, la Phalène réticulée.
 En anglais : latticed heath.</t>
         </is>
       </c>
